--- a/downloadDMxlsx/double-materiality-report-data_1749538778774.xlsx
+++ b/downloadDMxlsx/double-materiality-report-data_1749538778774.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="17028" windowHeight="7944" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sustainability matters" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Impacts" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Risks" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Opportunities" state="visible" r:id="rId7"/>
+    <sheet name="Sustainability matters" sheetId="1" r:id="rId1"/>
+    <sheet name="Impacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Risks" sheetId="3" r:id="rId3"/>
+    <sheet name="Opportunities" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <oleSize ref="A1:G93"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -493,25 +510,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -519,27 +879,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,16 +1511,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G93"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -913,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -936,7 +1594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -959,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +2008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1396,7 +2054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +2100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +2146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +2169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +2192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +2215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1649,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +2330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1695,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1718,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1741,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1764,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1787,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1810,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1856,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1879,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +2560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1925,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1948,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1971,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2063,7 +2721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2178,7 +2836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -2201,7 +2859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2224,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -2247,7 +2905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2270,7 +2928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -2339,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2362,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +3043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2431,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -2477,7 +3135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -2500,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2523,7 +3181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -2546,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +3227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -2592,7 +3250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -2615,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -2638,7 +3296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -2661,7 +3319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +3342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -2707,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -2730,7 +3388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -2753,7 +3411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +3434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2799,7 +3457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -2822,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -2845,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2868,7 +3526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2891,7 +3549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2914,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2937,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2960,7 +3618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2983,7 +3641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3008,16 +3666,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +3886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +4022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3427,16 +4092,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +4164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +4220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3604,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3660,7 +4332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3718,16 +4390,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3783,7 +4462,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +4518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +4574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3951,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4009,6 +4688,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>